--- a/medicine/Mort/Décès_en_1921/Décès_en_1921.xlsx
+++ b/medicine/Mort/Décès_en_1921/Décès_en_1921.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1921</t>
+          <t>Décès_en_1921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1921</t>
+          <t>Décès_en_1921</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,12 +540,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Georges Chicotot, peintre, médecin et radiologue français (° 31 janvier 1865).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Georges Chicotot, peintre, médecin et radiologue français (° 31 janvier 1865).
 Abbott Handerson Thayer, peintre américain (° 12 août 1849).
-Ahmed el-Wafi, musicien et compositeur de malouf tunisien d'origine andalouse (° 1er janvier 1850).
-Janvier
-2 janvier : Theobald von Bethmann Hollweg, chancelier allemand (° 29 novembre 1856).
+Ahmed el-Wafi, musicien et compositeur de malouf tunisien d'origine andalouse (° 1er janvier 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Theobald von Bethmann Hollweg, chancelier allemand (° 29 novembre 1856).
 16 janvier : Delphine de Cool, peintre, enseignante et spécialiste de la peinture sur émail française (° 25 décembre 1830).
 21 janvier : Arthur Lewis Sifton, premier ministre de l'Alberta (° 26 octobre 1858).
 23 janvier :
@@ -542,9 +593,43 @@
 Władysław Żeleński, compositeur, pianiste et organiste polonais (° 6 juillet 1837).
 30 janvier :
 Lawrence John Cannon, avocat, fonctionnaire et juge canadien (° 18 novembre 1852).
-Cornélis Liégeois, violoncelliste et compositeur belge (° 25 mars 1860).
-Février
-1er février : Alfred Fock, compositeur français (° 1850).
+Cornélis Liégeois, violoncelliste et compositeur belge (° 25 mars 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Alfred Fock, compositeur français (° 1850).
 2 février : Andrea Carlo Ferrari, cardinal italien, archevêque de Milan (° 13 août 1850).
 3 février : Alfred Youl, homme politique britannique puis australien (° 23 août 1849).
 4 février :
@@ -555,44 +640,282 @@
 18 février :
 Jules Gabriel Dubois-Menant, peintre, lithographe et photographe français (° 11 avril 1855).
 Sophie Schaeppi, peintre suisse (° 21 juillet 1852).
-24 février : Hashiguchi Goyō, peintre et graveur japonais (° 21 décembre 1880).
-Mars
-8 mars : Julia Antonine Girardet, aquarelliste, romancière et compositrice de musique franco-suisse (° 20 septembre 1851).
+24 février : Hashiguchi Goyō, peintre et graveur japonais (° 21 décembre 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 mars : Julia Antonine Girardet, aquarelliste, romancière et compositrice de musique franco-suisse (° 20 septembre 1851).
 21 mars : Émile Isenbart, peintre français (° 3 mars 1846).
 23 mars : Jean-Paul Laurens, sculpteur et peintre français (° 28 mars 1838).
 24 mars : Déodat de Séverac, compositeur français (° 20 juillet 1872).
-28 mars : Juan Ortega Rubio, historien espagnol (° 7 février 1845).
-Avril
-7 avril : Victor de Mirecki, violoncelliste et professeur de musique espagnol d'origine franco-polonaise (° 21 juillet 1847).
+28 mars : Juan Ortega Rubio, historien espagnol (° 7 février 1845).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7 avril : Victor de Mirecki, violoncelliste et professeur de musique espagnol d'origine franco-polonaise (° 21 juillet 1847).
 22 avril : Vibeke Salicath, féministe danoise (° 1er août 1861).
-? avril : Jean d'Espouy, peintre et aquarelliste français (° 30 novembre 1891).
-Mai
-6 mai : Raoul Arus, peintre français (° 6 novembre 1846).
+? avril : Jean d'Espouy, peintre et aquarelliste français (° 30 novembre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 mai : Raoul Arus, peintre français (° 6 novembre 1846).
 10 mai :
 Piotr Tselebrovski, peintre de paysages, de personnages et de scènes historiques russe (° 18 juin 1859).
 Ernest Wittmann, peintre, sculpteur et dessinateur français (° 25 septembre 1846).
-23 mai :  Giuseppe Carelli, peintre italien (° 10 mars 1858).
-Juin
-7 juin : Enrico Lionne, peintre et illustrateur italien (° 15 juillet 1865).
+23 mai :  Giuseppe Carelli, peintre italien (° 10 mars 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7 juin : Enrico Lionne, peintre et illustrateur italien (° 15 juillet 1865).
 9 juin : Luis María Drago, juriste et homme politique argentin (° 6 mai 1859).
 12 juin : Ernesto Pastor, matador portoricain (° 4 avril 1892).
 13 juin : José Miguel Gómez, militaire et homme politique cubain (° 8 juin 1858).
 15 juin : Claude Bourgonnier, peintre et illustrateur français (° 1858).
-19 juin : Ernest Jean Delahaye, peintre français (° 22 avril 1855).
-Juillet
-3 juillet : Philippe de Saxe-Cobourg-Kohary, prince de la maison de Saxe-Cobourg, membre de la Chambre des Seigneurs de Hongrie, écrivain et numismate (° 28 mars 1844).
+19 juin : Ernest Jean Delahaye, peintre français (° 22 avril 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Philippe de Saxe-Cobourg-Kohary, prince de la maison de Saxe-Cobourg, membre de la Chambre des Seigneurs de Hongrie, écrivain et numismate (° 28 mars 1844).
 4 juillet : Gabrielle Ferrari, pianiste et compositrice franco-italienne (° 14 septembre 1851).
 15 juillet : August Lehr, coureur cycliste allemand (° 26 février 1871).
-31 juillet : Alice Jacob, illustratrice botanique, dessinatrice de dentelles et enseignante de design irlandaise (° 26 janvier 1862).
-Août
-2 août : Enrico Caruso, chanteur italien (° 25 février 1873).
+31 juillet : Alice Jacob, illustratrice botanique, dessinatrice de dentelles et enseignante de design irlandaise (° 26 janvier 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Enrico Caruso, chanteur italien (° 25 février 1873).
 7 août : Alexandre Blok, poète russe puis soviétique (° 16 novembre 1880).
 14 août : Georg Ritter von Schönerer, homme politique autrichien (° 17 juillet 1842).
 17 août : Achille Granchi-Taylor, peintre et illustrateur français (° 1857).
 21 août : Édouard Darviot, peintre français (° 19 avril 1859).
-28 août : Thomas William Paterson, homme politique canadien (° 6 décembre 1851).
-Septembre
-5 septembre : Albert Dardy, écrivain, peintre paysagiste, architecte et soldat français (° 11 octobre 1874).
+28 août : Thomas William Paterson, homme politique canadien (° 6 décembre 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5 septembre : Albert Dardy, écrivain, peintre paysagiste, architecte et soldat français (° 11 octobre 1874).
 6 septembre : Henry Woodward, géologue et paléontologue britannique (° 24 novembre 1832).
 15 septembre : Roman von Ungern-Sternberg, militaire russe (° 10 janvier 1886).
 19 septembre : Van Dyke Brooke, réalisateur, acteur et scénariste américain (° 22 juin 1859).
@@ -600,9 +923,43 @@
 22 septembre :
 Auguste-René-Marie Dubourg, cardinal français, archevêque de Rennes (° 1er octobre 1842).
 Ivan Vazov, écrivain, poète et homme politique bulgare  (° 27 juin 1850 ou 9 juillet 1850).
-27 septembre : Engelbert Humperdinck, compositeur allemand (° 1er septembre 1854).
-Octobre
-10 octobre : Louis Mesnier, footballeur français (° 1884).
+27 septembre : Engelbert Humperdinck, compositeur allemand (° 1er septembre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10 octobre : Louis Mesnier, footballeur français (° 1884).
 15 octobre : Charles Carrington, éditeur anglais d'ouvrages à caractère érotique (° 11 novembre 1867).
 19 octobre : George Kendall, propriétaire des Canadiens de Montréal (° 19 décembre 1881).
 20 octobre : Louis Benedictus, pianiste et compositeur français (° 13 décembre 1850).
@@ -611,9 +968,43 @@
 31 octobre :
 Albert Adamkiewicz, médecin germano-polonais (° 11 août 1850).
 Ferdinand Chalandon, historien français (° 10 février 1875).
-Kyriak Kostandi, peintre réaliste russe (° 3 octobre 1852).
-Novembre
-1er novembre :
+Kyriak Kostandi, peintre réaliste russe (° 3 octobre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Zoé Lafontaine, femme de Wilfrid Laurier (° 26 juin 1842).
 Francisco Pradilla y Ortiz, peintre espagnol (° 24 juillet 1848).
 5 novembre : Antoinette Brown Blackwell, première femme ordonnée pasteur aux États-Unis (° 20 mai 1825).
@@ -625,9 +1016,43 @@
 25 novembre : Théodore Lack, pianiste et compositeur français (° 3 septembre 1846).
 27 novembre : Douglas Colin Cameron, lieutenant-gouverneur du Manitoba (° 8 juin 1854).
 28 novembre : Joseph Bail, peintre français (° 22 janvier 1862).
-29 novembre : Ivan Caryll, compositeur belge (° 12 mai 1861).
-Décembre
-5 décembre : Eugénie Gruyer-Brielman, peintre et dessinatrice française (° 2 novembre 1837).
+29 novembre : Ivan Caryll, compositeur belge (° 12 mai 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1921</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 décembre : Eugénie Gruyer-Brielman, peintre et dessinatrice française (° 2 novembre 1837).
 6 décembre :
 Félix Arnaudin, poète et photographe français (° 30 mai 1844).
 Flores (Isidoro Martí Fernando), matador espagnol (° 12 mai 1884).
